--- a/g_profiler/MUSC.gprofiler.xlsx
+++ b/g_profiler/MUSC.gprofiler.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t xml:space="preserve">term_id</t>
   </si>
@@ -41,18 +41,18 @@
     <t xml:space="preserve">GO:BP</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0050879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicellular organismal movement</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0050881</t>
   </si>
   <si>
     <t xml:space="preserve">musculoskeletal movement</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0050879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multicellular organismal movement</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0006941</t>
   </si>
   <si>
@@ -113,22 +113,40 @@
     <t xml:space="preserve">actin-mediated cell contraction</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0030049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle filament sliding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0033275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actin-myosin filament sliding</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0044057</t>
   </si>
   <si>
     <t xml:space="preserve">regulation of system process</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0030049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle filament sliding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0033275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actin-myosin filament sliding</t>
+    <t xml:space="preserve">GO:0061061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle structure development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0060047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0003015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart process</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0060048</t>
@@ -137,22 +155,10 @@
     <t xml:space="preserve">cardiac muscle contraction</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0060047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0003015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0061061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle structure development</t>
+    <t xml:space="preserve">GO:0014721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitch skeletal muscle contraction</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0003010</t>
@@ -161,10 +167,22 @@
     <t xml:space="preserve">voluntary skeletal muscle contraction</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0014721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twitch skeletal muscle contraction</t>
+    <t xml:space="preserve">GO:0007517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle organ development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1901019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of calcium ion transmembrane transporter activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicellular organismal process</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0008015</t>
@@ -173,66 +191,54 @@
     <t xml:space="preserve">blood circulation</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0055002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">striated muscle cell development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actin filament-based process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">striated muscle tissue development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transition between fast and slow fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0055001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle cell development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0060537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle tissue development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of heart contraction</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0003013</t>
   </si>
   <si>
     <t xml:space="preserve">circulatory system process</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:1901019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of calcium ion transmembrane transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multicellular organismal process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle organ development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actin filament-based process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">striated muscle tissue development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle cell development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0060537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle tissue development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0008016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of heart contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transition between fast and slow fiber</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0014722</t>
   </si>
   <si>
@@ -269,12 +275,6 @@
     <t xml:space="preserve">divalent inorganic cation transport</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0055002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">striated muscle cell development</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0042692</t>
   </si>
   <si>
@@ -287,58 +287,358 @@
     <t xml:space="preserve">calcium ion transmembrane transport</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0043500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of skeletal muscle adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of calcium ion transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium ion transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of ion transmembrane transporter activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1904062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cation transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0022898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of transmembrane transporter activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of muscle adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of transporter activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1901021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of calcium ion transmembrane transporter activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of multicellular organismal process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cation transport</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0010959</t>
   </si>
   <si>
     <t xml:space="preserve">regulation of metal ion transport</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0043500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cation transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of calcium ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of ion transmembrane transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1904062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cation transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0022898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of transmembrane transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of skeletal muscle adaptation</t>
+    <t xml:space="preserve">GO:0070296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarcoplasmic reticulum calcium ion transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of calcium ion transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0055117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cardiac muscle contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of twitch skeletal muscle contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of skeletal muscle contraction by regulation of release of sequestered calcium ion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slow-twitch skeletal muscle fiber contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeletal muscle adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0034765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of ion transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0034762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">striated muscle adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1904064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cation transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0034220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ion transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0098655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cation transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal ion transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of ion transmembrane transporter activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0098662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inorganic cation transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeletal muscle tissue development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of transporter activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0060538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeletal muscle organ development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1904427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of calcium ion transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:2001257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cation channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0098660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inorganic ion transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0045214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarcomere organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0035637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicellular organismal signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0055085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0034764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0034767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of ion transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular calcium ion homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cardiac muscle contraction by calcium ion signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle fiber development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular metal ion homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0055074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium ion homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myofibril assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0003011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">involuntary skeletal muscle contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fast-twitch skeletal muscle fiber contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0072503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular divalent inorganic cation homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0090075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relaxation of muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0072507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divalent inorganic cation homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:2001259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cation channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1903115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of actin filament-based movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0055065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal ion homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0019722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium-mediated signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular cation homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0001508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0019725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular ion homeostasis</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0043270</t>
@@ -347,22 +647,70 @@
     <t xml:space="preserve">positive regulation of ion transport</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0032409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of muscle adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1901021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of calcium ion transmembrane transporter activity</t>
+    <t xml:space="preserve">GO:0070509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium ion import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of membrane potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0055080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cation homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0098771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inorganic ion homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0046716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle cell cellular homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1990036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium ion import into sarcoplasmic reticulum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ion homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1903779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cardiac conduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0060401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosolic calcium ion transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular component assembly involved in morphogenesis</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0043269</t>
@@ -371,304 +719,10 @@
     <t xml:space="preserve">regulation of ion transport</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0034765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of ion transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0034220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ion transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0070296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarcoplasmic reticulum calcium ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of calcium ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cardiac muscle contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0031444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slow-twitch skeletal muscle fiber contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of twitch skeletal muscle contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of skeletal muscle contraction by regulation of release of sequestered calcium ion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0034762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skeletal muscle adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">striated muscle adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1904064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cation transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0098655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cation transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0098662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inorganic cation transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0034767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of ion transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of ion transmembrane transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skeletal muscle tissue development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0060538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skeletal muscle organ development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1904427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of calcium ion transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of multicellular organismal process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:2001257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cation channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0098660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inorganic ion transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0045214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarcomere organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0035637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multicellular organismal signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0034764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0019722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium-mediated signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0042391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of membrane potential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cardiac muscle contraction by calcium ion signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular calcium ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular metal ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0048747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle fiber development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myofibril assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0003011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">involuntary skeletal muscle contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0031443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fast-twitch skeletal muscle fiber contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0072503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular divalent inorganic cation homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0090075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relaxation of muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:2001259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cation channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0072507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divalent inorganic cation homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular cation homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0001508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action potential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0070509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium ion import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0019725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1903115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of actin filament-based movement</t>
+    <t xml:space="preserve">GO:0055008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardiac muscle tissue morphogenesis</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0051049</t>
@@ -677,52 +731,28 @@
     <t xml:space="preserve">regulation of transport</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0055080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cation homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0098771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inorganic ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0060401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosolic calcium ion transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0046716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle cell cellular homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1990036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium ion import into sarcoplasmic reticulum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular component assembly involved in morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardiac muscle tissue morphogenesis</t>
+    <t xml:space="preserve">GO:0055082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular chemical homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myotube differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0060314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of ryanodine-sensitive calcium-release channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actomyosin structure organization</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0060341</t>
@@ -731,70 +761,250 @@
     <t xml:space="preserve">regulation of cellular localization</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0050801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0060314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of ryanodine-sensitive calcium-release channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular chemical homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myotube differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0031032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actomyosin structure organization</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0009888</t>
   </si>
   <si>
     <t xml:space="preserve">tissue development</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0060415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle tissue morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance of location in cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of release of sequestered calcium ion into cytosol by sarcoplasmic reticulum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0086004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cardiac muscle cell contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0061337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardiac conduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0097553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium ion transmembrane import into cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle organ morphogenesis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0048630</t>
   </si>
   <si>
     <t xml:space="preserve">skeletal muscle tissue growth</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:1903779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cardiac conduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance of location in cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0060415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle tissue morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of release of sequestered calcium ion into cytosol by sarcoplasmic reticulum</t>
+    <t xml:space="preserve">GO:1901385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of voltage-gated calcium channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homeostatic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release of sequestered calcium ion into cytosol by sarcoplasmic reticulum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of release of sequestered calcium ion into cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1903514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release of sequestered calcium ion into cytosol by endoplasmic reticulum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to muscle inactivity involved in regulation of muscle adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to denervation involved in regulation of muscle adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movement of cell or subcellular component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0003007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myotube cell development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0060402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium ion transport into cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to muscle inactivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1901387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of voltage-gated calcium channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0090279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of calcium ion import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemical homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0065008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of biological quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0055010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ventricular cardiac muscle tissue morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0002027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of heart rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1902082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of calcium ion import into sarcoplasmic reticulum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of skeletal muscle contraction by chemo-mechanical energy conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0100001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of skeletal muscle contraction by action potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of fast-twitch skeletal muscle fiber contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of fast-twitch skeletal muscle fiber contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0090076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relaxation of skeletal muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of slow-twitch skeletal muscle fiber contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0002086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diaphragm contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of the force of skeletal muscle contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of calcium ion transport into cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0045989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of striated muscle contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to inactivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0014874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to stimulus involved in regulation of muscle adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0003229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ventricular cardiac muscle tissue development</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0019932</t>
@@ -803,226 +1013,16 @@
     <t xml:space="preserve">second-messenger-mediated signaling</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0097553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium ion transmembrane import into cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0061337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardiac conduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0042592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homeostatic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0048644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle organ morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">release of sequestered calcium ion into cytosol by sarcoplasmic reticulum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of release of sequestered calcium ion into cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1903514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">release of sequestered calcium ion into cytosol by endoplasmic reticulum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movement of cell or subcellular component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1901385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of voltage-gated calcium channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to muscle inactivity involved in regulation of muscle adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to denervation involved in regulation of muscle adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0060402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium ion transport into cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0003007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myotube cell development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to muscle inactivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0065008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of biological quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0086004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cardiac muscle cell contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0090279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of calcium ion import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1901387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of voltage-gated calcium channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0048878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemical homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of calcium-mediated signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0002027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of heart rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0055010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ventricular cardiac muscle tissue morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of calcium ion transport into cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0060079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excitatory postsynaptic potential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0031446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of fast-twitch skeletal muscle fiber contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0031448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of fast-twitch skeletal muscle fiber contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of skeletal muscle contraction by chemo-mechanical energy conversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0002086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diaphragm contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0100001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of skeletal muscle contraction by action potential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0031449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of slow-twitch skeletal muscle fiber contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0090076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relaxation of skeletal muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of the force of skeletal muscle contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1902082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of calcium ion import into sarcoplasmic reticulum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to inactivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0014874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to stimulus involved in regulation of muscle adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0099565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemical synaptic transmission, postsynaptic</t>
+    <t xml:space="preserve">GO:0007204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cytosolic calcium ion concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release of sequestered calcium ion into cytosol</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0055119</t>
@@ -1031,108 +1031,72 @@
     <t xml:space="preserve">relaxation of cardiac muscle</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0003229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ventricular cardiac muscle tissue development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0045989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of striated muscle contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cytosolic calcium ion concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">release of sequestered calcium ion into cytosol</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0051283</t>
   </si>
   <si>
     <t xml:space="preserve">negative regulation of sequestering of calcium ion</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0051282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of sequestering of calcium ion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0003206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardiac chamber morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance of location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequestering of calcium ion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular component morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of endoplasmic reticulum calcium ion concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardiac muscle tissue development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cytosolic calcium ion concentration</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0035994</t>
   </si>
   <si>
     <t xml:space="preserve">response to muscle stretch</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0051282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of sequestering of calcium ion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maintenance of location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0003206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardiac chamber morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequestering of calcium ion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular component morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of endoplasmic reticulum calcium ion concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0048738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardiac muscle tissue development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cytosolic calcium ion concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cardiac muscle contraction by regulation of the release of sequestered calcium ion</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0007274</t>
   </si>
   <si>
     <t xml:space="preserve">neuromuscular synaptic transmission</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0060078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of postsynaptic membrane potential</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0003208</t>
   </si>
   <si>
@@ -1166,24 +1130,24 @@
     <t xml:space="preserve">troponin complex</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0099512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supramolecular fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0099081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supramolecular polymer</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0005865</t>
   </si>
   <si>
     <t xml:space="preserve">striated muscle thin filament</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0099512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supramolecular fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0099081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supramolecular polymer</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0036379</t>
   </si>
   <si>
@@ -1202,18 +1166,18 @@
     <t xml:space="preserve">sarcoplasm</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0015629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actin cytoskeleton</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0042383</t>
   </si>
   <si>
     <t xml:space="preserve">sarcolemma</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0015629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actin cytoskeleton</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0016529</t>
   </si>
   <si>
@@ -1226,18 +1190,18 @@
     <t xml:space="preserve">sarcoplasmic reticulum membrane</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0031674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I band</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0030018</t>
   </si>
   <si>
     <t xml:space="preserve">Z disc</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0031674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I band</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0016460</t>
   </si>
   <si>
@@ -1256,6 +1220,18 @@
     <t xml:space="preserve">myosin filament</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:1902495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transmembrane transporter complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1990351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transporter complex</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0031594</t>
   </si>
   <si>
@@ -1268,42 +1244,42 @@
     <t xml:space="preserve">cytoskeleton</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0043232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intracellular non-membrane-bounded organelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-membrane-bounded organelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muscle myosin complex</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0034702</t>
   </si>
   <si>
     <t xml:space="preserve">ion channel complex</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muscle myosin complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0005892</t>
   </si>
   <si>
     <t xml:space="preserve">acetylcholine-gated channel complex</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:1902495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transmembrane transporter complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0016459</t>
   </si>
   <si>
     <t xml:space="preserve">myosin complex</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:1990351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transporter complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0043034</t>
   </si>
   <si>
@@ -1352,16 +1328,16 @@
     <t xml:space="preserve">cytosol</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0043232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intracellular non-membrane-bounded organelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non-membrane-bounded organelle</t>
+    <t xml:space="preserve">GO:0098796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membrane protein complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0099572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postsynaptic specialization</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0031095</t>
@@ -1370,6 +1346,18 @@
     <t xml:space="preserve">platelet dense tubular network membrane</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0099055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integral component of postsynaptic membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0045202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synapse</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0003779</t>
   </si>
   <si>
@@ -1409,10 +1397,16 @@
     <t xml:space="preserve">protein-containing complex binding</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0030899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium-dependent ATPase activity</t>
+    <t xml:space="preserve">GO:0000146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microfilament motor activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0044325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ion channel binding</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0048306</t>
@@ -1421,16 +1415,10 @@
     <t xml:space="preserve">calcium-dependent protein binding</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0000146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microfilament motor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0044325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ion channel binding</t>
+    <t xml:space="preserve">GO:0042166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acetylcholine binding</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0043167</t>
@@ -1439,18 +1427,6 @@
     <t xml:space="preserve">ion binding</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0042166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acetylcholine binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0016887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPase activity</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0022848</t>
   </si>
   <si>
@@ -1469,48 +1445,30 @@
     <t xml:space="preserve">troponin C binding</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0005509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium ion binding</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0017018</t>
   </si>
   <si>
     <t xml:space="preserve">myosin phosphatase activity</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0043169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cation binding</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0031013</t>
   </si>
   <si>
     <t xml:space="preserve">troponin I binding</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0005231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excitatory extracellular ligand-gated ion channel activity</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0022890</t>
   </si>
   <si>
     <t xml:space="preserve">inorganic cation transmembrane transporter activity</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0005231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excitatory extracellular ligand-gated ion channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0017111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nucleoside-triphosphatase activity</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0008324</t>
   </si>
   <si>
@@ -1527,24 +1485,6 @@
   </si>
   <si>
     <t xml:space="preserve">ligand-gated cation channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0016462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrophosphatase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0016817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrolase activity, acting on acid anhydrides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0016818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrolase activity, acting on acid anhydrides, in phosphorus-containing anhydrides</t>
   </si>
   <si>
     <t xml:space="preserve">KEGG:05410</t>
@@ -2000,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000544544167258001</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000438506461373343</v>
       </c>
       <c r="E2" t="n">
         <v>43</v>
@@ -2020,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000368218614438516</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000296516336667926</v>
       </c>
       <c r="E3" t="n">
         <v>43</v>
@@ -2040,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000368218614438516</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000296516336667926</v>
       </c>
       <c r="E4" t="n">
         <v>43</v>
@@ -2060,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000624834762971959</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000148401789669381</v>
       </c>
       <c r="E5" t="n">
         <v>43</v>
@@ -2080,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000207416902578326</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000275161772629086</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
@@ -2100,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000361288665276482</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000351515863520535</v>
       </c>
       <c r="E7" t="n">
         <v>43</v>
@@ -2120,7 +2060,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00000000000000000000000000000000000523275197517049</v>
+        <v>0.00000000000000000000000000000000000660779039874131</v>
       </c>
       <c r="E8" t="n">
         <v>43</v>
@@ -2140,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0000000000000000000000000000000000347731379655251</v>
+        <v>0.0000000000000000000000000000000000315927159172619</v>
       </c>
       <c r="E9" t="n">
         <v>43</v>
@@ -2160,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0000000000000000000000000000000156242447444708</v>
+        <v>0.0000000000000000000000000000000118870393253116</v>
       </c>
       <c r="E10" t="n">
         <v>43</v>
@@ -2180,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000000000000000000000000000294869894399397</v>
+        <v>0.000000000000000000000000000235911284215928</v>
       </c>
       <c r="E11" t="n">
         <v>43</v>
@@ -2200,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00000000000000000000000000426521741298829</v>
+        <v>0.00000000000000000000000000208227882271266</v>
       </c>
       <c r="E12" t="n">
         <v>43</v>
@@ -2220,7 +2160,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000000000000000000000018394303477539</v>
+        <v>0.0000000000000000000000210171052736992</v>
       </c>
       <c r="E13" t="n">
         <v>43</v>
@@ -2240,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0000000000000000000000336730063399837</v>
+        <v>0.0000000000000000000000466829458934309</v>
       </c>
       <c r="E14" t="n">
         <v>43</v>
@@ -2260,13 +2200,13 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000000000000000000000125029226199253</v>
+        <v>0.000000000000000000000148560749936021</v>
       </c>
       <c r="E15" t="n">
         <v>43</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2280,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.000000000000000000000162810696149086</v>
+        <v>0.000000000000000000000148560749936021</v>
       </c>
       <c r="E16" t="n">
         <v>43</v>
@@ -2300,13 +2240,13 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>0.000000000000000000000162810696149086</v>
+        <v>0.000000000000000000000149331185830291</v>
       </c>
       <c r="E17" t="n">
         <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2320,13 +2260,13 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0000000000000000000445006764333602</v>
+        <v>0.0000000000000000230370804927296</v>
       </c>
       <c r="E18" t="n">
         <v>43</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2340,13 +2280,13 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0000000000000000000621066877685822</v>
+        <v>0.000000000000000136690509193289</v>
       </c>
       <c r="E19" t="n">
         <v>43</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -2360,13 +2300,13 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000000000000000000118361233065756</v>
+        <v>0.000000000000000241374628560733</v>
       </c>
       <c r="E20" t="n">
         <v>43</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -2380,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0000000000000000476679790254279</v>
+        <v>0.000000000000000255835444077962</v>
       </c>
       <c r="E21" t="n">
         <v>43</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2400,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>0.000000000000000507384373918317</v>
+        <v>0.000000000000000474587034326665</v>
       </c>
       <c r="E22" t="n">
         <v>43</v>
@@ -2420,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>0.000000000000000507384373918317</v>
+        <v>0.000000000000000474587034326665</v>
       </c>
       <c r="E23" t="n">
         <v>43</v>
@@ -2440,13 +2380,13 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0000000000000153037170920727</v>
+        <v>0.0000000000000763901143486627</v>
       </c>
       <c r="E24" t="n">
         <v>43</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2460,13 +2400,13 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>0.000000000000198729917396703</v>
+        <v>0.000000000000201832535124042</v>
       </c>
       <c r="E25" t="n">
         <v>43</v>
       </c>
       <c r="F25" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -2480,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00000000000028323599395805</v>
+        <v>0.00000000000142119309775702</v>
       </c>
       <c r="E26" t="n">
         <v>43</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -2500,13 +2440,13 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00000000000119250971018939</v>
+        <v>0.00000000000678241903391265</v>
       </c>
       <c r="E27" t="n">
         <v>43</v>
       </c>
       <c r="F27" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -2520,13 +2460,13 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00000000000121478909023873</v>
+        <v>0.00000000000734937642635756</v>
       </c>
       <c r="E28" t="n">
         <v>43</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -2540,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0000000000122246713250155</v>
+        <v>0.0000000000139411267897975</v>
       </c>
       <c r="E29" t="n">
         <v>43</v>
@@ -2560,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0000000000179107360643607</v>
+        <v>0.0000000000174869975744956</v>
       </c>
       <c r="E30" t="n">
         <v>43</v>
@@ -2580,13 +2520,13 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0000000000260245403439814</v>
+        <v>0.0000000000193842625850966</v>
       </c>
       <c r="E31" t="n">
         <v>43</v>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2600,13 +2540,13 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>0.000000000035544076501842</v>
+        <v>0.0000000000238696082122054</v>
       </c>
       <c r="E32" t="n">
         <v>43</v>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -2620,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0000000000359232464562377</v>
+        <v>0.0000000000345839841131582</v>
       </c>
       <c r="E33" t="n">
         <v>43</v>
       </c>
       <c r="F33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -2640,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000000000113106643335588</v>
+        <v>0.0000000000362808180503186</v>
       </c>
       <c r="E34" t="n">
         <v>43</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -2660,13 +2600,13 @@
         <v>8</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000000000117071594064776</v>
+        <v>0.0000000000664832577836552</v>
       </c>
       <c r="E35" t="n">
         <v>43</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -2680,13 +2620,13 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000000000154615168650273</v>
+        <v>0.000000000110417933148595</v>
       </c>
       <c r="E36" t="n">
         <v>43</v>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2700,13 +2640,13 @@
         <v>8</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000000000285738178379789</v>
+        <v>0.000000000152641666712273</v>
       </c>
       <c r="E37" t="n">
         <v>43</v>
       </c>
       <c r="F37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -2720,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>0.000000000313174657774118</v>
+        <v>0.000000000250324262608933</v>
       </c>
       <c r="E38" t="n">
         <v>43</v>
       </c>
       <c r="F38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -2740,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="D39" t="n">
-        <v>0.000000000338095831349149</v>
+        <v>0.000000000301723462002072</v>
       </c>
       <c r="E39" t="n">
         <v>43</v>
       </c>
       <c r="F39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -2760,13 +2700,13 @@
         <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>0.000000000385799881312552</v>
+        <v>0.00000000030904154279574</v>
       </c>
       <c r="E40" t="n">
         <v>43</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -2780,13 +2720,13 @@
         <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>0.000000000419529103906652</v>
+        <v>0.000000000371371220394753</v>
       </c>
       <c r="E41" t="n">
         <v>43</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -2800,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000000000457606453950821</v>
+        <v>0.000000000477424950427749</v>
       </c>
       <c r="E42" t="n">
         <v>43</v>
@@ -2820,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000000000598477464912977</v>
+        <v>0.0000000005692991604154</v>
       </c>
       <c r="E43" t="n">
         <v>43</v>
@@ -2840,13 +2780,13 @@
         <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>0.000000000599603732291679</v>
+        <v>0.000000000750052844094455</v>
       </c>
       <c r="E44" t="n">
         <v>43</v>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2860,13 +2800,13 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>0.000000000811270101962885</v>
+        <v>0.0000000011428796288306</v>
       </c>
       <c r="E45" t="n">
         <v>43</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2880,13 +2820,13 @@
         <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00000000101955946362043</v>
+        <v>0.00000000144332951259018</v>
       </c>
       <c r="E46" t="n">
         <v>43</v>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -2900,13 +2840,13 @@
         <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00000000143795715016548</v>
+        <v>0.00000000157353062651695</v>
       </c>
       <c r="E47" t="n">
         <v>43</v>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -2920,13 +2860,13 @@
         <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00000000162393103631112</v>
+        <v>0.00000000196444764183733</v>
       </c>
       <c r="E48" t="n">
         <v>43</v>
       </c>
       <c r="F48" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2940,13 +2880,13 @@
         <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00000000179679180950077</v>
+        <v>0.0000000027135911381273</v>
       </c>
       <c r="E49" t="n">
         <v>43</v>
       </c>
       <c r="F49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -2960,13 +2900,13 @@
         <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00000000240323070454603</v>
+        <v>0.00000000313626295872473</v>
       </c>
       <c r="E50" t="n">
         <v>43</v>
       </c>
       <c r="F50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -2980,13 +2920,13 @@
         <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00000000288926473328339</v>
+        <v>0.00000000555160717223421</v>
       </c>
       <c r="E51" t="n">
         <v>43</v>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -3000,13 +2940,13 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00000000299801416279569</v>
+        <v>0.00000000575927987079463</v>
       </c>
       <c r="E52" t="n">
         <v>43</v>
       </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -3020,13 +2960,13 @@
         <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00000000474484739104987</v>
+        <v>0.00000000690340500942116</v>
       </c>
       <c r="E53" t="n">
         <v>43</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -3040,13 +2980,13 @@
         <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00000000535315444452471</v>
+        <v>0.0000000100623879330311</v>
       </c>
       <c r="E54" t="n">
         <v>43</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
@@ -3060,13 +3000,13 @@
         <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00000000598064769238306</v>
+        <v>0.0000000122930968159998</v>
       </c>
       <c r="E55" t="n">
         <v>43</v>
       </c>
       <c r="F55" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -3080,13 +3020,13 @@
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00000000737876240068473</v>
+        <v>0.0000000129768055740994</v>
       </c>
       <c r="E56" t="n">
         <v>43</v>
       </c>
       <c r="F56" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3100,13 +3040,13 @@
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>0.00000000757058146613311</v>
+        <v>0.0000000170499945397155</v>
       </c>
       <c r="E57" t="n">
         <v>43</v>
       </c>
       <c r="F57" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3120,13 +3060,13 @@
         <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00000000916652022617023</v>
+        <v>0.0000000229617233913071</v>
       </c>
       <c r="E58" t="n">
         <v>43</v>
       </c>
       <c r="F58" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -3140,13 +3080,13 @@
         <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00000000936041059355654</v>
+        <v>0.0000000267935057056889</v>
       </c>
       <c r="E59" t="n">
         <v>43</v>
       </c>
       <c r="F59" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3160,13 +3100,13 @@
         <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0000000153510648677793</v>
+        <v>0.0000000512112711485071</v>
       </c>
       <c r="E60" t="n">
         <v>43</v>
       </c>
       <c r="F60" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -3180,13 +3120,13 @@
         <v>8</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0000000186193824370749</v>
+        <v>0.0000000512112711485071</v>
       </c>
       <c r="E61" t="n">
         <v>43</v>
       </c>
       <c r="F61" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -3200,13 +3140,13 @@
         <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0000000198301694868011</v>
+        <v>0.0000000512112711485071</v>
       </c>
       <c r="E62" t="n">
         <v>43</v>
       </c>
       <c r="F62" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3220,13 +3160,13 @@
         <v>8</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0000000387645562876925</v>
+        <v>0.0000000661842512607453</v>
       </c>
       <c r="E63" t="n">
         <v>43</v>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3240,13 +3180,13 @@
         <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0000000540720672792001</v>
+        <v>0.0000000801445911252457</v>
       </c>
       <c r="E64" t="n">
         <v>43</v>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -3260,13 +3200,13 @@
         <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0000000540720672792001</v>
+        <v>0.0000000896221525443666</v>
       </c>
       <c r="E65" t="n">
         <v>43</v>
       </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -3280,13 +3220,13 @@
         <v>8</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0000000540720672792001</v>
+        <v>0.000000101049043360152</v>
       </c>
       <c r="E66" t="n">
         <v>43</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3300,13 +3240,13 @@
         <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0000000859346736179745</v>
+        <v>0.000000126728571814387</v>
       </c>
       <c r="E67" t="n">
         <v>43</v>
       </c>
       <c r="F67" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -3320,13 +3260,13 @@
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>0.000000089510549250862</v>
+        <v>0.000000149157000625773</v>
       </c>
       <c r="E68" t="n">
         <v>43</v>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -3340,13 +3280,13 @@
         <v>8</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0000000958414913353748</v>
+        <v>0.000000207686945228275</v>
       </c>
       <c r="E69" t="n">
         <v>43</v>
       </c>
       <c r="F69" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -3360,13 +3300,13 @@
         <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>0.000000122897328621807</v>
+        <v>0.000000272869660412644</v>
       </c>
       <c r="E70" t="n">
         <v>43</v>
       </c>
       <c r="F70" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -3380,13 +3320,13 @@
         <v>8</v>
       </c>
       <c r="D71" t="n">
-        <v>0.000000136479703511014</v>
+        <v>0.000000324630545825222</v>
       </c>
       <c r="E71" t="n">
         <v>43</v>
       </c>
       <c r="F71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -3400,13 +3340,13 @@
         <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>0.000000170662244745728</v>
+        <v>0.000000325046216103439</v>
       </c>
       <c r="E72" t="n">
         <v>43</v>
       </c>
       <c r="F72" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -3420,13 +3360,13 @@
         <v>8</v>
       </c>
       <c r="D73" t="n">
-        <v>0.000000245715220452679</v>
+        <v>0.000000347690930154325</v>
       </c>
       <c r="E73" t="n">
         <v>43</v>
       </c>
       <c r="F73" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -3440,13 +3380,13 @@
         <v>8</v>
       </c>
       <c r="D74" t="n">
-        <v>0.000000302241579279846</v>
+        <v>0.000000571669501960816</v>
       </c>
       <c r="E74" t="n">
         <v>43</v>
       </c>
       <c r="F74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3460,13 +3400,13 @@
         <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>0.000000323487195581472</v>
+        <v>0.000000610063639744209</v>
       </c>
       <c r="E75" t="n">
         <v>43</v>
       </c>
       <c r="F75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -3480,13 +3420,13 @@
         <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>0.000000336617897800411</v>
+        <v>0.000000759845644776375</v>
       </c>
       <c r="E76" t="n">
         <v>43</v>
       </c>
       <c r="F76" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3500,7 +3440,7 @@
         <v>8</v>
       </c>
       <c r="D77" t="n">
-        <v>0.000000565578889422747</v>
+        <v>0.00000108232142483786</v>
       </c>
       <c r="E77" t="n">
         <v>43</v>
@@ -3520,13 +3460,13 @@
         <v>8</v>
       </c>
       <c r="D78" t="n">
-        <v>0.000000572652304053028</v>
+        <v>0.00000144551426567046</v>
       </c>
       <c r="E78" t="n">
         <v>43</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -3540,13 +3480,13 @@
         <v>8</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00000066699359502777</v>
+        <v>0.00000202559819256141</v>
       </c>
       <c r="E79" t="n">
         <v>43</v>
       </c>
       <c r="F79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -3560,13 +3500,13 @@
         <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>0.000000719796717169874</v>
+        <v>0.00000210547802190343</v>
       </c>
       <c r="E80" t="n">
         <v>43</v>
       </c>
       <c r="F80" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -3580,13 +3520,13 @@
         <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>0.000000922054050960292</v>
+        <v>0.00000244827887837904</v>
       </c>
       <c r="E81" t="n">
         <v>43</v>
       </c>
       <c r="F81" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -3600,13 +3540,13 @@
         <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>0.00000115789725975507</v>
+        <v>0.00000345924720743286</v>
       </c>
       <c r="E82" t="n">
         <v>43</v>
       </c>
       <c r="F82" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -3620,13 +3560,13 @@
         <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00000215596989544077</v>
+        <v>0.00000345924720743286</v>
       </c>
       <c r="E83" t="n">
         <v>43</v>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -3640,13 +3580,13 @@
         <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>0.00000217174523475011</v>
+        <v>0.0000145750477895457</v>
       </c>
       <c r="E84" t="n">
         <v>43</v>
       </c>
       <c r="F84" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -3660,13 +3600,13 @@
         <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00000253627688874053</v>
+        <v>0.0000150607893972898</v>
       </c>
       <c r="E85" t="n">
         <v>43</v>
       </c>
       <c r="F85" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -3680,13 +3620,13 @@
         <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>0.00000329809967576745</v>
+        <v>0.0000157089274982694</v>
       </c>
       <c r="E86" t="n">
         <v>43</v>
       </c>
       <c r="F86" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -3700,13 +3640,13 @@
         <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00000472172980445423</v>
+        <v>0.0000160287064986279</v>
       </c>
       <c r="E87" t="n">
         <v>43</v>
       </c>
       <c r="F87" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -3720,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>0.000010987288544984</v>
+        <v>0.0000193829065135369</v>
       </c>
       <c r="E88" t="n">
         <v>43</v>
@@ -3740,13 +3680,13 @@
         <v>8</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0000133279472959264</v>
+        <v>0.0000227725595391833</v>
       </c>
       <c r="E89" t="n">
         <v>43</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -3760,13 +3700,13 @@
         <v>8</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0000147705089879478</v>
+        <v>0.0000231590170951336</v>
       </c>
       <c r="E90" t="n">
         <v>43</v>
       </c>
       <c r="F90" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -3780,13 +3720,13 @@
         <v>8</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0000164726905410636</v>
+        <v>0.0000231590170951336</v>
       </c>
       <c r="E91" t="n">
         <v>43</v>
       </c>
       <c r="F91" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -3800,13 +3740,13 @@
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0000167177829849614</v>
+        <v>0.0000314578976020175</v>
       </c>
       <c r="E92" t="n">
         <v>43</v>
       </c>
       <c r="F92" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
@@ -3820,13 +3760,13 @@
         <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0000201122515085654</v>
+        <v>0.000045506321461404</v>
       </c>
       <c r="E93" t="n">
         <v>43</v>
       </c>
       <c r="F93" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -3840,13 +3780,13 @@
         <v>8</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0000242343441256242</v>
+        <v>0.0000470114969873212</v>
       </c>
       <c r="E94" t="n">
         <v>43</v>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -3860,13 +3800,13 @@
         <v>8</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0000243513554991878</v>
+        <v>0.0000485554458740014</v>
       </c>
       <c r="E95" t="n">
         <v>43</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -3880,13 +3820,13 @@
         <v>8</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0000243513554991878</v>
+        <v>0.0000598970145933887</v>
       </c>
       <c r="E96" t="n">
         <v>43</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -3900,13 +3840,13 @@
         <v>8</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0000320393976769143</v>
+        <v>0.000061710750699001</v>
       </c>
       <c r="E97" t="n">
         <v>43</v>
       </c>
       <c r="F97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -3920,13 +3860,13 @@
         <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0000360510457532841</v>
+        <v>0.0000632568195772577</v>
       </c>
       <c r="E98" t="n">
         <v>43</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -3940,13 +3880,13 @@
         <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0000477268044355363</v>
+        <v>0.0000658744443926044</v>
       </c>
       <c r="E99" t="n">
         <v>43</v>
       </c>
       <c r="F99" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -3960,13 +3900,13 @@
         <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0000489561632269798</v>
+        <v>0.0000745283779340578</v>
       </c>
       <c r="E100" t="n">
         <v>43</v>
       </c>
       <c r="F100" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -3980,13 +3920,13 @@
         <v>8</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0000638381563264792</v>
+        <v>0.0000816712999428034</v>
       </c>
       <c r="E101" t="n">
         <v>43</v>
       </c>
       <c r="F101" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
@@ -4000,7 +3940,7 @@
         <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0000681656052293938</v>
+        <v>0.0000825112804124614</v>
       </c>
       <c r="E102" t="n">
         <v>43</v>
@@ -4020,13 +3960,13 @@
         <v>8</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0000721724666797027</v>
+        <v>0.0000907301401901706</v>
       </c>
       <c r="E103" t="n">
         <v>43</v>
       </c>
       <c r="F103" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -4040,7 +3980,7 @@
         <v>8</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0000813895387966758</v>
+        <v>0.000101616580579018</v>
       </c>
       <c r="E104" t="n">
         <v>43</v>
@@ -4060,13 +4000,13 @@
         <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0000860460529782314</v>
+        <v>0.00013965571483387</v>
       </c>
       <c r="E105" t="n">
         <v>43</v>
       </c>
       <c r="F105" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -4080,7 +4020,7 @@
         <v>8</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0000868421967084334</v>
+        <v>0.000226841243933494</v>
       </c>
       <c r="E106" t="n">
         <v>43</v>
@@ -4100,13 +4040,13 @@
         <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>0.000185854877854948</v>
+        <v>0.000258529156765752</v>
       </c>
       <c r="E107" t="n">
         <v>43</v>
       </c>
       <c r="F107" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -4120,13 +4060,13 @@
         <v>8</v>
       </c>
       <c r="D108" t="n">
-        <v>0.000189545822851224</v>
+        <v>0.000265245559567732</v>
       </c>
       <c r="E108" t="n">
         <v>43</v>
       </c>
       <c r="F108" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -4140,13 +4080,13 @@
         <v>8</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00023596931331359</v>
+        <v>0.000438845863206801</v>
       </c>
       <c r="E109" t="n">
         <v>43</v>
       </c>
       <c r="F109" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -4160,13 +4100,13 @@
         <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>0.000280023876809467</v>
+        <v>0.000460879807426749</v>
       </c>
       <c r="E110" t="n">
         <v>43</v>
       </c>
       <c r="F110" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -4180,13 +4120,13 @@
         <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>0.000411429308921747</v>
+        <v>0.000496884745145391</v>
       </c>
       <c r="E111" t="n">
         <v>43</v>
       </c>
       <c r="F111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -4200,13 +4140,13 @@
         <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>0.000452455828901746</v>
+        <v>0.000502888730579128</v>
       </c>
       <c r="E112" t="n">
         <v>43</v>
       </c>
       <c r="F112" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -4220,13 +4160,13 @@
         <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>0.000463297642468262</v>
+        <v>0.000508882612148853</v>
       </c>
       <c r="E113" t="n">
         <v>43</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -4240,13 +4180,13 @@
         <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>0.000484598079063711</v>
+        <v>0.000539023068083525</v>
       </c>
       <c r="E114" t="n">
         <v>43</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -4260,13 +4200,13 @@
         <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>0.000544467736443344</v>
+        <v>0.000643413146052692</v>
       </c>
       <c r="E115" t="n">
         <v>43</v>
       </c>
       <c r="F115" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -4280,7 +4220,7 @@
         <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>0.000685279317514402</v>
+        <v>0.000646601121445221</v>
       </c>
       <c r="E116" t="n">
         <v>43</v>
@@ -4300,13 +4240,13 @@
         <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>0.000688238158678867</v>
+        <v>0.000672968854003525</v>
       </c>
       <c r="E117" t="n">
         <v>43</v>
       </c>
       <c r="F117" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
@@ -4320,7 +4260,7 @@
         <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>0.000727243684045191</v>
+        <v>0.000760792283132061</v>
       </c>
       <c r="E118" t="n">
         <v>43</v>
@@ -4340,13 +4280,13 @@
         <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>0.000778135544943286</v>
+        <v>0.00080269009075021</v>
       </c>
       <c r="E119" t="n">
         <v>43</v>
       </c>
       <c r="F119" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -4360,13 +4300,13 @@
         <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>0.000805123507226444</v>
+        <v>0.000863779987349239</v>
       </c>
       <c r="E120" t="n">
         <v>43</v>
       </c>
       <c r="F120" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -4380,13 +4320,13 @@
         <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>0.000853871021216165</v>
+        <v>0.000975927454233726</v>
       </c>
       <c r="E121" t="n">
         <v>43</v>
       </c>
       <c r="F121" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -4400,13 +4340,13 @@
         <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>0.000944173733928337</v>
+        <v>0.000988025839073182</v>
       </c>
       <c r="E122" t="n">
         <v>43</v>
       </c>
       <c r="F122" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
@@ -4420,7 +4360,7 @@
         <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>0.00123088982361744</v>
+        <v>0.00133489567700011</v>
       </c>
       <c r="E123" t="n">
         <v>43</v>
@@ -4440,13 +4380,13 @@
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>0.00135236004078614</v>
+        <v>0.00168577343306599</v>
       </c>
       <c r="E124" t="n">
         <v>43</v>
       </c>
       <c r="F124" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -4460,13 +4400,13 @@
         <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0014558659883164</v>
+        <v>0.00176083353290106</v>
       </c>
       <c r="E125" t="n">
         <v>43</v>
       </c>
       <c r="F125" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -4480,13 +4420,13 @@
         <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>0.00171853186838241</v>
+        <v>0.00199326989155234</v>
       </c>
       <c r="E126" t="n">
         <v>43</v>
       </c>
       <c r="F126" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -4500,13 +4440,13 @@
         <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>0.00178644300932702</v>
+        <v>0.00225514558655803</v>
       </c>
       <c r="E127" t="n">
         <v>43</v>
       </c>
       <c r="F127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -4520,13 +4460,13 @@
         <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>0.00185233428846526</v>
+        <v>0.00238124542287353</v>
       </c>
       <c r="E128" t="n">
         <v>43</v>
       </c>
       <c r="F128" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -4540,13 +4480,13 @@
         <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>0.00213799563837683</v>
+        <v>0.00238124542287353</v>
       </c>
       <c r="E129" t="n">
         <v>43</v>
       </c>
       <c r="F129" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
@@ -4560,13 +4500,13 @@
         <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>0.00215767187924115</v>
+        <v>0.0026325540728675</v>
       </c>
       <c r="E130" t="n">
         <v>43</v>
       </c>
       <c r="F130" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
@@ -4580,13 +4520,13 @@
         <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>0.00243423259258166</v>
+        <v>0.00274698541619588</v>
       </c>
       <c r="E131" t="n">
         <v>43</v>
       </c>
       <c r="F131" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4600,13 +4540,13 @@
         <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>0.00267429570445163</v>
+        <v>0.00285453352579873</v>
       </c>
       <c r="E132" t="n">
         <v>43</v>
       </c>
       <c r="F132" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -4620,13 +4560,13 @@
         <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0027896201626271</v>
+        <v>0.00299346480257566</v>
       </c>
       <c r="E133" t="n">
         <v>43</v>
       </c>
       <c r="F133" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134">
@@ -4640,7 +4580,7 @@
         <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>0.00301330204272219</v>
+        <v>0.00319502167177901</v>
       </c>
       <c r="E134" t="n">
         <v>43</v>
@@ -4660,7 +4600,7 @@
         <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0033359364537344</v>
+        <v>0.00353392023698129</v>
       </c>
       <c r="E135" t="n">
         <v>43</v>
@@ -4680,7 +4620,7 @@
         <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>0.00337270384081678</v>
+        <v>0.0035647525174064</v>
       </c>
       <c r="E136" t="n">
         <v>43</v>
@@ -4700,13 +4640,13 @@
         <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>0.00372967496264203</v>
+        <v>0.00377084367135393</v>
       </c>
       <c r="E137" t="n">
         <v>43</v>
       </c>
       <c r="F137" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -4720,13 +4660,13 @@
         <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>0.00376296920659209</v>
+        <v>0.00377084367135393</v>
       </c>
       <c r="E138" t="n">
         <v>43</v>
       </c>
       <c r="F138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -4740,13 +4680,13 @@
         <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0039647656946488</v>
+        <v>0.00424276977834546</v>
       </c>
       <c r="E139" t="n">
         <v>43</v>
       </c>
       <c r="F139" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
@@ -4760,13 +4700,13 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0039647656946488</v>
+        <v>0.00425649979973647</v>
       </c>
       <c r="E140" t="n">
         <v>43</v>
       </c>
       <c r="F140" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -4780,13 +4720,13 @@
         <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00444400180130315</v>
+        <v>0.00439830449165532</v>
       </c>
       <c r="E141" t="n">
         <v>43</v>
       </c>
       <c r="F141" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -4800,13 +4740,13 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>0.00454232086786378</v>
+        <v>0.00481011711094534</v>
       </c>
       <c r="E142" t="n">
         <v>43</v>
       </c>
       <c r="F142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -4820,13 +4760,13 @@
         <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00464280383759398</v>
+        <v>0.00501945759139502</v>
       </c>
       <c r="E143" t="n">
         <v>43</v>
       </c>
       <c r="F143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -4840,7 +4780,7 @@
         <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>0.00527755523798876</v>
+        <v>0.00501945759139502</v>
       </c>
       <c r="E144" t="n">
         <v>43</v>
@@ -4860,13 +4800,13 @@
         <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>0.00611387593137048</v>
+        <v>0.00648834011400219</v>
       </c>
       <c r="E145" t="n">
         <v>43</v>
       </c>
       <c r="F145" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -4880,13 +4820,13 @@
         <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>0.00623699779668319</v>
+        <v>0.00697995276941626</v>
       </c>
       <c r="E146" t="n">
         <v>43</v>
       </c>
       <c r="F146" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -4900,13 +4840,13 @@
         <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00623699779668319</v>
+        <v>0.00716739776292189</v>
       </c>
       <c r="E147" t="n">
         <v>43</v>
       </c>
       <c r="F147" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148">
@@ -4920,13 +4860,13 @@
         <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00684940289004779</v>
+        <v>0.00923619415997801</v>
       </c>
       <c r="E148" t="n">
         <v>43</v>
       </c>
       <c r="F148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
@@ -4940,13 +4880,13 @@
         <v>8</v>
       </c>
       <c r="D149" t="n">
-        <v>0.00700274348876564</v>
+        <v>0.00937506415546671</v>
       </c>
       <c r="E149" t="n">
         <v>43</v>
       </c>
       <c r="F149" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
@@ -4960,13 +4900,13 @@
         <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>0.00904523714294076</v>
+        <v>0.0102182102256333</v>
       </c>
       <c r="E150" t="n">
         <v>43</v>
       </c>
       <c r="F150" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -4980,13 +4920,13 @@
         <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>0.00948080822949467</v>
+        <v>0.0102182102256333</v>
       </c>
       <c r="E151" t="n">
         <v>43</v>
       </c>
       <c r="F151" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -5000,13 +4940,13 @@
         <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>0.00974906923908489</v>
+        <v>0.0102182102256333</v>
       </c>
       <c r="E152" t="n">
         <v>43</v>
       </c>
       <c r="F152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -5020,13 +4960,13 @@
         <v>8</v>
       </c>
       <c r="D153" t="n">
-        <v>0.00993266900323998</v>
+        <v>0.0102182102256333</v>
       </c>
       <c r="E153" t="n">
         <v>43</v>
       </c>
       <c r="F153" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -5040,13 +4980,13 @@
         <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>0.00993266900323998</v>
+        <v>0.0102182102256333</v>
       </c>
       <c r="E154" t="n">
         <v>43</v>
       </c>
       <c r="F154" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -5060,7 +5000,7 @@
         <v>8</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0106997480321431</v>
+        <v>0.0102182102256333</v>
       </c>
       <c r="E155" t="n">
         <v>43</v>
@@ -5080,7 +5020,7 @@
         <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0106997480321431</v>
+        <v>0.0102182102256333</v>
       </c>
       <c r="E156" t="n">
         <v>43</v>
@@ -5100,7 +5040,7 @@
         <v>8</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0106997480321431</v>
+        <v>0.0102182102256333</v>
       </c>
       <c r="E157" t="n">
         <v>43</v>
@@ -5120,7 +5060,7 @@
         <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0106997480321431</v>
+        <v>0.0102182102256333</v>
       </c>
       <c r="E158" t="n">
         <v>43</v>
@@ -5140,13 +5080,13 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0106997480321431</v>
+        <v>0.0102759729872918</v>
       </c>
       <c r="E159" t="n">
         <v>43</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -5160,13 +5100,13 @@
         <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0106997480321431</v>
+        <v>0.0103296205681714</v>
       </c>
       <c r="E160" t="n">
         <v>43</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -5180,13 +5120,13 @@
         <v>8</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0106997480321431</v>
+        <v>0.0103296205681714</v>
       </c>
       <c r="E161" t="n">
         <v>43</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -5200,13 +5140,13 @@
         <v>8</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0106997480321431</v>
+        <v>0.0153865541734281</v>
       </c>
       <c r="E162" t="n">
         <v>43</v>
       </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -5220,13 +5160,13 @@
         <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0106997480321431</v>
+        <v>0.0159947543590577</v>
       </c>
       <c r="E163" t="n">
         <v>43</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -5240,13 +5180,13 @@
         <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>0.0108605387197689</v>
+        <v>0.0183554240090131</v>
       </c>
       <c r="E164" t="n">
         <v>43</v>
       </c>
       <c r="F164" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
@@ -5260,13 +5200,13 @@
         <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>0.0133445741126539</v>
+        <v>0.0205680830428182</v>
       </c>
       <c r="E165" t="n">
         <v>43</v>
       </c>
       <c r="F165" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -5280,7 +5220,7 @@
         <v>8</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0148063283118205</v>
+        <v>0.0218153399119236</v>
       </c>
       <c r="E166" t="n">
         <v>43</v>
@@ -5300,7 +5240,7 @@
         <v>8</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0161771633936689</v>
+        <v>0.0218532439581356</v>
       </c>
       <c r="E167" t="n">
         <v>43</v>
@@ -5320,13 +5260,13 @@
         <v>8</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0168820763829957</v>
+        <v>0.022669672332965</v>
       </c>
       <c r="E168" t="n">
         <v>43</v>
       </c>
       <c r="F168" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -5340,13 +5280,13 @@
         <v>8</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0193802973169264</v>
+        <v>0.0244566448248591</v>
       </c>
       <c r="E169" t="n">
         <v>43</v>
       </c>
       <c r="F169" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
@@ -5360,13 +5300,13 @@
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>0.020258444318696</v>
+        <v>0.0253904032127577</v>
       </c>
       <c r="E170" t="n">
         <v>43</v>
       </c>
       <c r="F170" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -5380,13 +5320,13 @@
         <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0213798181391274</v>
+        <v>0.0269615892415693</v>
       </c>
       <c r="E171" t="n">
         <v>43</v>
       </c>
       <c r="F171" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -5400,7 +5340,7 @@
         <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0222315101842434</v>
+        <v>0.0283596197379999</v>
       </c>
       <c r="E172" t="n">
         <v>43</v>
@@ -5420,13 +5360,13 @@
         <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0229758147008785</v>
+        <v>0.0292288399242534</v>
       </c>
       <c r="E173" t="n">
         <v>43</v>
       </c>
       <c r="F173" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -5440,13 +5380,13 @@
         <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0240143273944008</v>
+        <v>0.0306083126427098</v>
       </c>
       <c r="E174" t="n">
         <v>43</v>
       </c>
       <c r="F174" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -5460,13 +5400,13 @@
         <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>0.0251550674518601</v>
+        <v>0.0324227780738404</v>
       </c>
       <c r="E175" t="n">
         <v>43</v>
       </c>
       <c r="F175" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
@@ -5480,13 +5420,13 @@
         <v>8</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0259069165178055</v>
+        <v>0.0388839997401278</v>
       </c>
       <c r="E176" t="n">
         <v>43</v>
       </c>
       <c r="F176" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -5500,13 +5440,13 @@
         <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0268958503331958</v>
+        <v>0.0452691871309781</v>
       </c>
       <c r="E177" t="n">
         <v>43</v>
       </c>
       <c r="F177" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -5520,13 +5460,13 @@
         <v>8</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0311267853039468</v>
+        <v>0.0452691871309781</v>
       </c>
       <c r="E178" t="n">
         <v>43</v>
       </c>
       <c r="F178" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -5540,13 +5480,13 @@
         <v>8</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0320505413854308</v>
+        <v>0.0468548271147182</v>
       </c>
       <c r="E179" t="n">
         <v>43</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -5557,136 +5497,136 @@
         <v>364</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0344622812290913</v>
+        <v>0.0000000000000000000000294087925852447</v>
       </c>
       <c r="E180" t="n">
         <v>43</v>
       </c>
       <c r="F180" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>366</v>
+      </c>
+      <c r="B181" t="s">
+        <v>367</v>
+      </c>
+      <c r="C181" t="s">
         <v>365</v>
       </c>
-      <c r="B181" t="s">
-        <v>366</v>
-      </c>
-      <c r="C181" t="s">
-        <v>8</v>
-      </c>
       <c r="D181" t="n">
-        <v>0.0407332907940951</v>
+        <v>0.000000000000000000000072769988220104</v>
       </c>
       <c r="E181" t="n">
         <v>43</v>
       </c>
       <c r="F181" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B182" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0475929604204286</v>
+        <v>0.000000000000000000000309911505494889</v>
       </c>
       <c r="E182" t="n">
         <v>43</v>
       </c>
       <c r="F182" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B183" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0475929604204286</v>
+        <v>0.000000000000000000745616770271782</v>
       </c>
       <c r="E183" t="n">
         <v>43</v>
       </c>
       <c r="F183" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B184" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="D184" t="n">
-        <v>0.048699115609281</v>
+        <v>0.00000000000000602796809322583</v>
       </c>
       <c r="E184" t="n">
         <v>43</v>
       </c>
       <c r="F184" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B185" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0494481086256462</v>
+        <v>0.00000000000000712486839851529</v>
       </c>
       <c r="E185" t="n">
         <v>43</v>
       </c>
       <c r="F185" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B186" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C186" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D186" t="n">
-        <v>0.00000000000000000000183556695871773</v>
+        <v>0.0000000000000396970144137097</v>
       </c>
       <c r="E186" t="n">
         <v>43</v>
       </c>
       <c r="F186" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
@@ -5697,16 +5637,16 @@
         <v>379</v>
       </c>
       <c r="C187" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D187" t="n">
-        <v>0.00000000000000000000401469197893344</v>
+        <v>0.000000000000178564998167422</v>
       </c>
       <c r="E187" t="n">
         <v>43</v>
       </c>
       <c r="F187" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
@@ -5717,16 +5657,16 @@
         <v>381</v>
       </c>
       <c r="C188" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0000000000000000000194909920327407</v>
+        <v>0.00000000000229823450132477</v>
       </c>
       <c r="E188" t="n">
         <v>43</v>
       </c>
       <c r="F188" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189">
@@ -5737,16 +5677,16 @@
         <v>383</v>
       </c>
       <c r="C189" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D189" t="n">
-        <v>0.000000000000000000751383339789872</v>
+        <v>0.0000000000316778644871912</v>
       </c>
       <c r="E189" t="n">
         <v>43</v>
       </c>
       <c r="F189" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
@@ -5757,16 +5697,16 @@
         <v>385</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0000000000000261322858197152</v>
+        <v>0.0000000000444477815726317</v>
       </c>
       <c r="E190" t="n">
         <v>43</v>
       </c>
       <c r="F190" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
@@ -5777,16 +5717,16 @@
         <v>387</v>
       </c>
       <c r="C191" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0000000000000990433707723182</v>
+        <v>0.000000000110890930800787</v>
       </c>
       <c r="E191" t="n">
         <v>43</v>
       </c>
       <c r="F191" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -5797,16 +5737,16 @@
         <v>389</v>
       </c>
       <c r="C192" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D192" t="n">
-        <v>0.000000000000116194107616697</v>
+        <v>0.000000000795996157634467</v>
       </c>
       <c r="E192" t="n">
         <v>43</v>
       </c>
       <c r="F192" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193">
@@ -5817,16 +5757,16 @@
         <v>391</v>
       </c>
       <c r="C193" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D193" t="n">
-        <v>0.000000000000126835645266409</v>
+        <v>0.000000081174284281443</v>
       </c>
       <c r="E193" t="n">
         <v>43</v>
       </c>
       <c r="F193" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194">
@@ -5837,16 +5777,16 @@
         <v>393</v>
       </c>
       <c r="C194" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0000000000270478701212662</v>
+        <v>0.0000002110357284997</v>
       </c>
       <c r="E194" t="n">
         <v>43</v>
       </c>
       <c r="F194" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195">
@@ -5857,16 +5797,16 @@
         <v>395</v>
       </c>
       <c r="C195" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D195" t="n">
-        <v>0.000000000031933314990467</v>
+        <v>0.00000337659649210393</v>
       </c>
       <c r="E195" t="n">
         <v>43</v>
       </c>
       <c r="F195" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -5877,16 +5817,16 @@
         <v>397</v>
       </c>
       <c r="C196" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D196" t="n">
-        <v>0.00000000010388491535451</v>
+        <v>0.0000256218033936886</v>
       </c>
       <c r="E196" t="n">
         <v>43</v>
       </c>
       <c r="F196" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -5897,16 +5837,16 @@
         <v>399</v>
       </c>
       <c r="C197" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D197" t="n">
-        <v>0.000000000775508536219204</v>
+        <v>0.0000325436553579436</v>
       </c>
       <c r="E197" t="n">
         <v>43</v>
       </c>
       <c r="F197" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
@@ -5917,16 +5857,16 @@
         <v>401</v>
       </c>
       <c r="C198" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D198" t="n">
-        <v>0.000000000802122103284673</v>
+        <v>0.0000385567356698273</v>
       </c>
       <c r="E198" t="n">
         <v>43</v>
       </c>
       <c r="F198" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
@@ -5937,16 +5877,16 @@
         <v>403</v>
       </c>
       <c r="C199" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D199" t="n">
-        <v>0.0000000817400091488017</v>
+        <v>0.000149229054775449</v>
       </c>
       <c r="E199" t="n">
         <v>43</v>
       </c>
       <c r="F199" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -5957,16 +5897,16 @@
         <v>405</v>
       </c>
       <c r="C200" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D200" t="n">
-        <v>0.00000359036099478106</v>
+        <v>0.000191323455187959</v>
       </c>
       <c r="E200" t="n">
         <v>43</v>
       </c>
       <c r="F200" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -5977,16 +5917,16 @@
         <v>407</v>
       </c>
       <c r="C201" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D201" t="n">
-        <v>0.00000665378953788241</v>
+        <v>0.000208700626770725</v>
       </c>
       <c r="E201" t="n">
         <v>43</v>
       </c>
       <c r="F201" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
@@ -5997,16 +5937,16 @@
         <v>409</v>
       </c>
       <c r="C202" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0000257816113191905</v>
+        <v>0.00021775738124869</v>
       </c>
       <c r="E202" t="n">
         <v>43</v>
       </c>
       <c r="F202" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203">
@@ -6017,16 +5957,16 @@
         <v>411</v>
       </c>
       <c r="C203" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0000327580583822158</v>
+        <v>0.000680034201975585</v>
       </c>
       <c r="E203" t="n">
         <v>43</v>
       </c>
       <c r="F203" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
@@ -6037,16 +5977,16 @@
         <v>413</v>
       </c>
       <c r="C204" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0000387971739571422</v>
+        <v>0.000701013698794914</v>
       </c>
       <c r="E204" t="n">
         <v>43</v>
       </c>
       <c r="F204" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205">
@@ -6057,16 +5997,16 @@
         <v>415</v>
       </c>
       <c r="C205" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D205" t="n">
-        <v>0.000161370894362152</v>
+        <v>0.00114894274307586</v>
       </c>
       <c r="E205" t="n">
         <v>43</v>
       </c>
       <c r="F205" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -6077,16 +6017,16 @@
         <v>417</v>
       </c>
       <c r="C206" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D206" t="n">
-        <v>0.000204880355403375</v>
+        <v>0.00120814428247074</v>
       </c>
       <c r="E206" t="n">
         <v>43</v>
       </c>
       <c r="F206" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
@@ -6097,16 +6037,16 @@
         <v>419</v>
       </c>
       <c r="C207" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D207" t="n">
-        <v>0.00109169612401098</v>
+        <v>0.00141184761501699</v>
       </c>
       <c r="E207" t="n">
         <v>43</v>
       </c>
       <c r="F207" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -6117,16 +6057,16 @@
         <v>421</v>
       </c>
       <c r="C208" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D208" t="n">
-        <v>0.00115568522001567</v>
+        <v>0.00196553694842659</v>
       </c>
       <c r="E208" t="n">
         <v>43</v>
       </c>
       <c r="F208" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
@@ -6137,10 +6077,10 @@
         <v>423</v>
       </c>
       <c r="C209" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D209" t="n">
-        <v>0.00142013209784339</v>
+        <v>0.00243143275484966</v>
       </c>
       <c r="E209" t="n">
         <v>43</v>
@@ -6157,16 +6097,16 @@
         <v>425</v>
       </c>
       <c r="C210" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D210" t="n">
-        <v>0.00173525477392834</v>
+        <v>0.00356540485213196</v>
       </c>
       <c r="E210" t="n">
         <v>43</v>
       </c>
       <c r="F210" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -6177,16 +6117,16 @@
         <v>427</v>
       </c>
       <c r="C211" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D211" t="n">
-        <v>0.00197775189114234</v>
+        <v>0.00517737229399817</v>
       </c>
       <c r="E211" t="n">
         <v>43</v>
       </c>
       <c r="F211" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
@@ -6197,16 +6137,16 @@
         <v>429</v>
       </c>
       <c r="C212" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D212" t="n">
-        <v>0.00203634126547627</v>
+        <v>0.00818240027738724</v>
       </c>
       <c r="E212" t="n">
         <v>43</v>
       </c>
       <c r="F212" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213">
@@ -6217,16 +6157,16 @@
         <v>431</v>
       </c>
       <c r="C213" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D213" t="n">
-        <v>0.00244569570388994</v>
+        <v>0.00893267566150697</v>
       </c>
       <c r="E213" t="n">
         <v>43</v>
       </c>
       <c r="F213" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
@@ -6237,16 +6177,16 @@
         <v>433</v>
       </c>
       <c r="C214" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D214" t="n">
-        <v>0.00358502739509443</v>
+        <v>0.0177054046530499</v>
       </c>
       <c r="E214" t="n">
         <v>43</v>
       </c>
       <c r="F214" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
@@ -6257,16 +6197,16 @@
         <v>435</v>
       </c>
       <c r="C215" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D215" t="n">
-        <v>0.00449719507731028</v>
+        <v>0.0203977551610523</v>
       </c>
       <c r="E215" t="n">
         <v>43</v>
       </c>
       <c r="F215" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -6277,16 +6217,16 @@
         <v>437</v>
       </c>
       <c r="C216" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D216" t="n">
-        <v>0.00683450080673324</v>
+        <v>0.0211609620014249</v>
       </c>
       <c r="E216" t="n">
         <v>43</v>
       </c>
       <c r="F216" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217">
@@ -6297,16 +6237,16 @@
         <v>439</v>
       </c>
       <c r="C217" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D217" t="n">
-        <v>0.00824849649580366</v>
+        <v>0.0317933404372215</v>
       </c>
       <c r="E217" t="n">
         <v>43</v>
       </c>
       <c r="F217" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218">
@@ -6317,16 +6257,16 @@
         <v>441</v>
       </c>
       <c r="C218" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0165538140509038</v>
+        <v>0.04159551569813</v>
       </c>
       <c r="E218" t="n">
         <v>43</v>
       </c>
       <c r="F218" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219">
@@ -6337,16 +6277,16 @@
         <v>443</v>
       </c>
       <c r="C219" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0190156920037266</v>
+        <v>0.0424163102378339</v>
       </c>
       <c r="E219" t="n">
         <v>43</v>
       </c>
       <c r="F219" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -6357,16 +6297,16 @@
         <v>445</v>
       </c>
       <c r="C220" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0208379509031322</v>
+        <v>0.0431250881957975</v>
       </c>
       <c r="E220" t="n">
         <v>43</v>
       </c>
       <c r="F220" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221">
@@ -6377,16 +6317,16 @@
         <v>447</v>
       </c>
       <c r="C221" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0368239730665625</v>
+        <v>0.045828615484922</v>
       </c>
       <c r="E221" t="n">
         <v>43</v>
       </c>
       <c r="F221" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222">
@@ -6397,56 +6337,56 @@
         <v>449</v>
       </c>
       <c r="C222" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0374276349454883</v>
+        <v>0.00000000000905261499772369</v>
       </c>
       <c r="E222" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F222" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
+        <v>451</v>
+      </c>
+      <c r="B223" t="s">
+        <v>452</v>
+      </c>
+      <c r="C223" t="s">
         <v>450</v>
       </c>
-      <c r="B223" t="s">
-        <v>451</v>
-      </c>
-      <c r="C223" t="s">
-        <v>377</v>
-      </c>
       <c r="D223" t="n">
-        <v>0.0426496161158308</v>
+        <v>0.000000000034407755942438</v>
       </c>
       <c r="E223" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F223" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B224" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C224" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D224" t="n">
-        <v>0.00000000000718517679272971</v>
+        <v>0.000000000407669616362596</v>
       </c>
       <c r="E224" t="n">
         <v>42</v>
       </c>
       <c r="F224" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225">
@@ -6457,16 +6397,16 @@
         <v>456</v>
       </c>
       <c r="C225" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0000000000291242003350298</v>
+        <v>0.0000000102819246759004</v>
       </c>
       <c r="E225" t="n">
         <v>42</v>
       </c>
       <c r="F225" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226">
@@ -6477,16 +6417,16 @@
         <v>458</v>
       </c>
       <c r="C226" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D226" t="n">
-        <v>0.000000000335588074201578</v>
+        <v>0.0000188992622535086</v>
       </c>
       <c r="E226" t="n">
         <v>42</v>
       </c>
       <c r="F226" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
@@ -6497,16 +6437,16 @@
         <v>460</v>
       </c>
       <c r="C227" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0000000101089558448732</v>
+        <v>0.000025426778105251</v>
       </c>
       <c r="E227" t="n">
         <v>42</v>
       </c>
       <c r="F227" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
@@ -6517,16 +6457,16 @@
         <v>462</v>
       </c>
       <c r="C228" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0000186674451287426</v>
+        <v>0.000202458311425129</v>
       </c>
       <c r="E228" t="n">
         <v>42</v>
       </c>
       <c r="F228" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
@@ -6537,16 +6477,16 @@
         <v>464</v>
       </c>
       <c r="C229" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0000226171116252549</v>
+        <v>0.000273884012585053</v>
       </c>
       <c r="E229" t="n">
         <v>42</v>
       </c>
       <c r="F229" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230">
@@ -6557,16 +6497,16 @@
         <v>466</v>
       </c>
       <c r="C230" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0000480578408120896</v>
+        <v>0.000533620154141678</v>
       </c>
       <c r="E230" t="n">
         <v>42</v>
       </c>
       <c r="F230" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
@@ -6577,16 +6517,16 @@
         <v>468</v>
       </c>
       <c r="C231" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D231" t="n">
-        <v>0.000154440555033308</v>
+        <v>0.00106891952896571</v>
       </c>
       <c r="E231" t="n">
         <v>42</v>
       </c>
       <c r="F231" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -6597,16 +6537,16 @@
         <v>470</v>
       </c>
       <c r="C232" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D232" t="n">
-        <v>0.000230479052653919</v>
+        <v>0.00253655243678738</v>
       </c>
       <c r="E232" t="n">
         <v>42</v>
       </c>
       <c r="F232" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233">
@@ -6617,16 +6557,16 @@
         <v>472</v>
       </c>
       <c r="C233" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D233" t="n">
-        <v>0.000238449614116338</v>
+        <v>0.00327817936844402</v>
       </c>
       <c r="E233" t="n">
         <v>42</v>
       </c>
       <c r="F233" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -6637,16 +6577,16 @@
         <v>474</v>
       </c>
       <c r="C234" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D234" t="n">
-        <v>0.000375536234929916</v>
+        <v>0.00547003420991634</v>
       </c>
       <c r="E234" t="n">
         <v>42</v>
       </c>
       <c r="F234" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -6657,16 +6597,16 @@
         <v>476</v>
       </c>
       <c r="C235" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D235" t="n">
-        <v>0.00135726252881667</v>
+        <v>0.00689825686714728</v>
       </c>
       <c r="E235" t="n">
         <v>42</v>
       </c>
       <c r="F235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -6677,16 +6617,16 @@
         <v>478</v>
       </c>
       <c r="C236" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D236" t="n">
-        <v>0.00187018515462592</v>
+        <v>0.0137768338668258</v>
       </c>
       <c r="E236" t="n">
         <v>42</v>
       </c>
       <c r="F236" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -6697,16 +6637,16 @@
         <v>480</v>
       </c>
       <c r="C237" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D237" t="n">
-        <v>0.00320681975164102</v>
+        <v>0.022928641324932</v>
       </c>
       <c r="E237" t="n">
         <v>42</v>
       </c>
       <c r="F237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -6717,10 +6657,10 @@
         <v>482</v>
       </c>
       <c r="C238" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D238" t="n">
-        <v>0.00623283709134681</v>
+        <v>0.0233569578402814</v>
       </c>
       <c r="E238" t="n">
         <v>42</v>
@@ -6737,16 +6677,16 @@
         <v>484</v>
       </c>
       <c r="C239" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D239" t="n">
-        <v>0.00671556262497443</v>
+        <v>0.0236806608203722</v>
       </c>
       <c r="E239" t="n">
         <v>42</v>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240">
@@ -6757,16 +6697,16 @@
         <v>486</v>
       </c>
       <c r="C240" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0116925272492665</v>
+        <v>0.0396267364013448</v>
       </c>
       <c r="E240" t="n">
         <v>42</v>
       </c>
       <c r="F240" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241">
@@ -6777,16 +6717,16 @@
         <v>488</v>
       </c>
       <c r="C241" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0134118718363283</v>
+        <v>0.0421803303035742</v>
       </c>
       <c r="E241" t="n">
         <v>42</v>
       </c>
       <c r="F241" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
@@ -6797,16 +6737,16 @@
         <v>490</v>
       </c>
       <c r="C242" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0187293380837715</v>
+        <v>0.0499628891298309</v>
       </c>
       <c r="E242" t="n">
         <v>42</v>
       </c>
       <c r="F242" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -6817,133 +6757,133 @@
         <v>492</v>
       </c>
       <c r="C243" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0223210811666725</v>
+        <v>0.000000164294639264468</v>
       </c>
       <c r="E243" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F243" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
+        <v>494</v>
+      </c>
+      <c r="B244" t="s">
+        <v>495</v>
+      </c>
+      <c r="C244" t="s">
         <v>493</v>
       </c>
-      <c r="B244" t="s">
-        <v>494</v>
-      </c>
-      <c r="C244" t="s">
-        <v>454</v>
-      </c>
       <c r="D244" t="n">
-        <v>0.0225496876407674</v>
+        <v>0.000000240983914269548</v>
       </c>
       <c r="E244" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F244" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B245" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C245" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0228458720771388</v>
+        <v>0.000005524593149101</v>
       </c>
       <c r="E245" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F245" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B246" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C246" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0296149033129355</v>
+        <v>0.000102671038782585</v>
       </c>
       <c r="E246" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F246" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B247" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C247" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="D247" t="n">
-        <v>0.037864346357641</v>
+        <v>0.000140225680543879</v>
       </c>
       <c r="E247" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F247" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B248" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C248" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0397201792487211</v>
+        <v>0.00204071235539346</v>
       </c>
       <c r="E248" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F248" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B249" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C249" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0425091929993281</v>
+        <v>0.0289251504741903</v>
       </c>
       <c r="E249" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F249" t="n">
         <v>4</v>
@@ -6951,341 +6891,141 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B250" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C250" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0481612334406991</v>
+        <v>0.000000000000000000000000499144303450899</v>
       </c>
       <c r="E250" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F250" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B251" t="s">
+        <v>510</v>
+      </c>
+      <c r="C251" t="s">
         <v>508</v>
       </c>
-      <c r="C251" t="s">
-        <v>454</v>
-      </c>
       <c r="D251" t="n">
-        <v>0.0498891410078794</v>
+        <v>0.000000000000000000013084560172096</v>
       </c>
       <c r="E251" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F251" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B252" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C252" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0498891410078794</v>
+        <v>0.0000012190653368705</v>
       </c>
       <c r="E252" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F252" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B253" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C253" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D253" t="n">
-        <v>0.000000162402561255537</v>
+        <v>0.00000271262003891397</v>
       </c>
       <c r="E253" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F253" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B254" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C254" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D254" t="n">
-        <v>0.000000238202649057911</v>
+        <v>0.00148551397503702</v>
       </c>
       <c r="E254" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F254" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B255" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C255" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D255" t="n">
-        <v>0.00000544450635907518</v>
+        <v>0.0214257961746445</v>
       </c>
       <c r="E255" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F255" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B256" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C256" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D256" t="n">
-        <v>0.000100882017155917</v>
+        <v>0.0000000000000000000249274926640874</v>
       </c>
       <c r="E256" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F256" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>520</v>
-      </c>
-      <c r="B257" t="s">
-        <v>521</v>
-      </c>
-      <c r="C257" t="s">
-        <v>513</v>
-      </c>
-      <c r="D257" t="n">
-        <v>0.000132852477106416</v>
-      </c>
-      <c r="E257" t="n">
-        <v>22</v>
-      </c>
-      <c r="F257" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>522</v>
-      </c>
-      <c r="B258" t="s">
-        <v>523</v>
-      </c>
-      <c r="C258" t="s">
-        <v>513</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0.000729706125693404</v>
-      </c>
-      <c r="E258" t="n">
-        <v>22</v>
-      </c>
-      <c r="F258" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>524</v>
-      </c>
-      <c r="B259" t="s">
-        <v>525</v>
-      </c>
-      <c r="C259" t="s">
-        <v>513</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0.0291186625083353</v>
-      </c>
-      <c r="E259" t="n">
-        <v>22</v>
-      </c>
-      <c r="F259" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>526</v>
-      </c>
-      <c r="B260" t="s">
-        <v>527</v>
-      </c>
-      <c r="C260" t="s">
-        <v>528</v>
-      </c>
-      <c r="D260" t="n">
-        <v>0.000000000000000000000000385825408722662</v>
-      </c>
-      <c r="E260" t="n">
-        <v>31</v>
-      </c>
-      <c r="F260" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>529</v>
-      </c>
-      <c r="B261" t="s">
-        <v>530</v>
-      </c>
-      <c r="C261" t="s">
-        <v>528</v>
-      </c>
-      <c r="D261" t="n">
-        <v>0.0000000000000000000120244398756688</v>
-      </c>
-      <c r="E261" t="n">
-        <v>31</v>
-      </c>
-      <c r="F261" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>531</v>
-      </c>
-      <c r="B262" t="s">
-        <v>532</v>
-      </c>
-      <c r="C262" t="s">
-        <v>528</v>
-      </c>
-      <c r="D262" t="n">
-        <v>0.00000109814466739939</v>
-      </c>
-      <c r="E262" t="n">
-        <v>31</v>
-      </c>
-      <c r="F262" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>533</v>
-      </c>
-      <c r="B263" t="s">
-        <v>534</v>
-      </c>
-      <c r="C263" t="s">
-        <v>528</v>
-      </c>
-      <c r="D263" t="n">
-        <v>0.00000263382868994626</v>
-      </c>
-      <c r="E263" t="n">
-        <v>31</v>
-      </c>
-      <c r="F263" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>535</v>
-      </c>
-      <c r="B264" t="s">
-        <v>536</v>
-      </c>
-      <c r="C264" t="s">
-        <v>528</v>
-      </c>
-      <c r="D264" t="n">
-        <v>0.00148111374498679</v>
-      </c>
-      <c r="E264" t="n">
-        <v>31</v>
-      </c>
-      <c r="F264" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>537</v>
-      </c>
-      <c r="B265" t="s">
-        <v>538</v>
-      </c>
-      <c r="C265" t="s">
-        <v>528</v>
-      </c>
-      <c r="D265" t="n">
-        <v>0.0213684928458292</v>
-      </c>
-      <c r="E265" t="n">
-        <v>31</v>
-      </c>
-      <c r="F265" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>539</v>
-      </c>
-      <c r="B266" t="s">
-        <v>540</v>
-      </c>
-      <c r="C266" t="s">
-        <v>541</v>
-      </c>
-      <c r="D266" t="n">
-        <v>0.000000000000000000022557626536276</v>
-      </c>
-      <c r="E266" t="n">
-        <v>25</v>
-      </c>
-      <c r="F266" t="n">
         <v>12</v>
       </c>
     </row>
